--- a/data/sewer_facility/data.xlsx
+++ b/data/sewer_facility/data.xlsx
@@ -497,7 +497,7 @@
         <v>高松市牟礼町牟礼2633-3</v>
       </c>
       <c r="F4" t="str">
-        <v>087-845-2269</v>
+        <v>087-843-8580</v>
       </c>
       <c r="G4" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/jigyosha/toshikeikaku/gesuido/sisetsu/mure.html</v>
@@ -523,7 +523,7 @@
         <v>高松市庵治町6392-6</v>
       </c>
       <c r="F5" t="str">
-        <v>-</v>
+        <v>087-843-8580</v>
       </c>
       <c r="G5" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/jigyosha/toshikeikaku/gesuido/sisetsu/aji.html</v>

--- a/data/sewer_facility/data.xlsx
+++ b/data/sewer_facility/data.xlsx
@@ -497,7 +497,7 @@
         <v>高松市牟礼町牟礼2633-3</v>
       </c>
       <c r="F4" t="str">
-        <v>087-843-8580</v>
+        <v>087-843-8580（東部下水処理場）</v>
       </c>
       <c r="G4" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/jigyosha/toshikeikaku/gesuido/sisetsu/mure.html</v>
@@ -523,7 +523,7 @@
         <v>高松市庵治町6392-6</v>
       </c>
       <c r="F5" t="str">
-        <v>087-843-8580</v>
+        <v>087-843-8580（東部下水処理場）</v>
       </c>
       <c r="G5" t="str">
         <v>http://www.city.takamatsu.kagawa.jp/jigyosha/toshikeikaku/gesuido/sisetsu/aji.html</v>
